--- a/DOC/IO引脚分配表.xlsx
+++ b/DOC/IO引脚分配表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>GPIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,38 +71,6 @@
     <t>PA15</t>
   </si>
   <si>
-    <t>WK_UP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STM_ADC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART2_TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART2_RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADC输入引脚，同时做TPAD检测脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STM_DAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GBC_KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OV_VSYNC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USART1_TX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,14 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USB_D-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,43 +87,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>485_RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JTMS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SWDIO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JTCK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SWDCLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JTDI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GBC_LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，DAC_OUT1输出脚
-2，ATK-MODULE接口的KEY引脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PB0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,50 +144,6 @@
     <t>PB15</t>
   </si>
   <si>
-    <t>LCD_BL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_SCK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TFTLCD接口触摸屏SCK信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOT1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_MISO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JTDO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JTRST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIFO_RCLK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIFO_WEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IIC_SDA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,34 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BEEP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMOTE_IN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F_CS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI2_SCK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI2_MISO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI2_MOSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接24C02的SCL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,23 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接蜂鸣器(BEEP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接HS0038红外接收头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，按键KEY_UP
-2，可以做待机唤醒脚(WKUP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>连接关系说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,18 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W25Q128的片选信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W25Q128和WIRELESS接口的MISO信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W25Q128和WIRELESS接口的MOSI信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PC13</t>
   </si>
   <si>
@@ -345,34 +175,6 @@
   </si>
   <si>
     <t>PC15</t>
-  </si>
-  <si>
-    <t>RTC晶振</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接32.768K晶振，不可用做IO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接32.768K晶振，不可用做IO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接DS0 LED灯(红色)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TFTLCD接口背光控制脚 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W25Q128和WIRELESS接口的SCK信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -394,134 +196,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1，JTAG仿真口(JTDI)
-2，ATK-MODULE接口的LED引脚(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>使用时，需先禁止JTAG，才可以当普通IO使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1，JTAG仿真口(JTDO)
-2，OLED/CAMERA接口WEN脚(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>使用时，需先禁止JTAG，才可以当普通IO使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1，JTAG仿真口(JTRST)
-2，OLED/CAMERA接口RCLK脚(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>使用时，需先禁止JTAG，才可以当普通IO使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>485_TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该IO可做DAC输出，同时也连接在ATK MODULE接口，如不插外设在ATK-MODULE接口，则可以完全独立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该IO接TFTLCD模块接口的背光控制脚(BL)，当不插TFTLCD模块时，该IO完全独立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该IO接TFTLCD模块接口的触摸屏SCK信号，当不插TFTLCD模块时，该IO完全独立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>该IO连接24C02的SDA信号，有4.7K上拉电阻，控制SCL=1，则该IO可做普通IO使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该IO连接DS0，即红色LED灯。如做普通IO用，则DS0也受控制，建议：仅做输出用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI2_SCK信号，当不使用W25Q128(片选禁止)和WIRELESS接口时，该IO可做普通IO使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI2_MISO信号，当不使用W25Q128(片选禁止)和WIRELESS接口时，该IO可做普通IO使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPI2_MOSI信号，当不使用W25Q128(片选禁止)和WIRELESS接口时，该IO可做普通IO使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JTAG仿真口，也作为OLED/CAMERA接口的RCLK脚，如不用JTAG和OLED/CAMERA接口，则可做普通IO用(有10K上拉电阻)。做普通IO用时，需先禁止JTAG。此时可用SWD仿真，但JTAG无法仿真。设置方法参考PA15的用法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JTAG仿真口，也作为OLED/CAMERA接口的WEN脚，如不用JTAG和OLED/CAMERA接口，则可做普通IO用(有10K上拉电阻)。做普通IO用时，需先禁止JTAG。此时可用SWD仿真，但JTAG无法仿真。设置方法参考PA15的用法。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -564,30 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只要KEY_UP不按下，该IO完全独立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">JTAG仿真口，也接ATK-MODULE接口的LED脚，如不用JTAG和ATK-MODULE接口，则可做普通IO用(有10K上拉电阻)。做普通IO用，需先禁止JTAG。此时可SWD仿真，但JTAG无法仿真。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>库函数禁止JTAG方法：GPIO_PinRemapConfig(GPIO_Remap_SWJ_JTAGDisable)
-寄存器禁止JTAG方法:JTAG_Set(SWD_ENABLE)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>该IO连接24C02的SCL信号，有4.7K上拉电阻，</t>
     </r>
@@ -605,84 +256,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>该IO控制蜂鸣器(BEEP)，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不建议作为普通IO使用</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>该IO连接HS0038红外接收头，有4.7K上拉电阻，且受HS0038控制，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不建议做普通IO使用</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>外接RTC晶振用，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不建议做普通IO用</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>该IO接W25Q128的片选信号，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不建议做普通IO使用</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>引脚编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全
-独立</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -817,62 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拔了P7的跳线帽，则该IO完全独立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RS485 RX脚(P5设置)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">该IO通过P5选择是否连接RS485_RX,去掉P5的跳线帽，则该IO完全独立 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RS485 TX脚(P5设置)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">该IO通过P5选择是否连接RS485_TX,去掉P5的跳线帽，则该IO完全独立 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未接任何外设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该IO未接任何外设，完全独立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">OLED/CAMERA接口的VSYNC脚 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅连接OLED/CAMERA接口的VSYNC，当不使用OLED/CAMERA接口时，该IO完全独立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该IO通过P3选择是否连接CH340的RXD，如果不连接，则该IO完全独立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该IO通过P3选择是否连接CH340的TXD，如果不连接，则该IO完全独立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>串口1 RX脚，默认连接CH340的TX(P3设置)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -891,67 +413,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CRX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CTX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该IO通过P6选择连接USB D+还是CAN的TX脚，如果去掉P6的跳线帽，则该IO完全独立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该IO通过P6选择连接USB D-还是CAN的RX脚，如果去掉P6的跳线帽，则该IO完全独立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接ATK-MODULE接口的RXD脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">该IO连接ATK-MODULE接口的RXD脚，如果不用ATK-MODULE接口，则该IO完全独立 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接ATK-MODULE接口的TXD脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">该IO连接ATK-MODULE接口的TXD脚，如果不用ATK-MODULE接口，则该IO完全独立 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GBC_RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GBC_TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未接任何外设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该IO未接任何外设，完全独立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，BOOT1,启动选择配置引脚(仅上电时用)
-2，TFTLCD接口触摸屏MISO信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该IO在上电时，作BOOT1用(由B1控制上拉/下拉，设置启动模式)，同时作为TFTLCD模块接口的触摸屏MISO信号，当不插TFTLCD模块时，则可做普通IO用(有10K上拉/下拉,B0控制)</t>
+    <t>DB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB1</t>
+  </si>
+  <si>
+    <t>DB2</t>
+  </si>
+  <si>
+    <t>DB3</t>
+  </si>
+  <si>
+    <t>DB4</t>
+  </si>
+  <si>
+    <t>DB5</t>
+  </si>
+  <si>
+    <t>DB6</t>
+  </si>
+  <si>
+    <t>DB7</t>
+  </si>
+  <si>
+    <t>ST7920数据线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,7 +542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1191,11 +690,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1248,6 +758,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1289,6 +802,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1305,7 +827,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1379,7 +901,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1414,7 +935,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1590,66 +1110,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.875" style="16" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="17" customWidth="1"/>
-    <col min="3" max="4" width="10.375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="5" style="16" customWidth="1"/>
-    <col min="6" max="6" width="38" style="15" customWidth="1"/>
-    <col min="7" max="7" width="76.125" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="10.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="38" style="15" customWidth="1"/>
+    <col min="5" max="5" width="76.125" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="C3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="9">
         <v>34</v>
       </c>
@@ -1657,20 +1168,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="9">
         <v>35</v>
       </c>
@@ -1678,22 +1183,12 @@
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="9">
         <v>36</v>
       </c>
@@ -1701,22 +1196,12 @@
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="9">
         <v>37</v>
       </c>
@@ -1724,22 +1209,12 @@
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="9">
         <v>40</v>
       </c>
@@ -1747,100 +1222,62 @@
         <v>5</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="9">
         <v>41</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="9">
         <v>42</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="9">
         <v>43</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="9">
         <v>100</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C12" s="9"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="9">
         <v>101</v>
       </c>
@@ -1848,20 +1285,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="9">
         <v>102</v>
       </c>
@@ -1869,20 +1302,14 @@
         <v>11</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" spans="1:5" ht="27">
       <c r="A15" s="9">
         <v>103</v>
       </c>
@@ -1890,22 +1317,14 @@
         <v>12</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="34"/>
+    </row>
+    <row r="16" spans="1:5" ht="27">
       <c r="A16" s="9">
         <v>104</v>
       </c>
@@ -1913,22 +1332,14 @@
         <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5" ht="27">
       <c r="A17" s="9">
         <v>105</v>
       </c>
@@ -1936,22 +1347,16 @@
         <v>14</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27">
       <c r="A18" s="9">
         <v>109</v>
       </c>
@@ -1959,473 +1364,270 @@
         <v>15</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="31"/>
-    </row>
-    <row r="19" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="9">
         <v>110</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C19" s="9"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="6">
         <v>46</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="6">
         <v>47</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="6">
         <v>48</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="6">
         <v>133</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="6">
         <v>134</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="6">
         <v>135</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="6">
         <v>136</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="6">
         <v>137</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="6">
         <v>139</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="6">
         <v>140</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="6">
         <v>69</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="6">
         <v>70</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="6">
         <v>73</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="6">
         <v>74</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="6">
         <v>75</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="6">
         <v>76</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="4">
         <v>7</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="4">
         <v>8</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="4">
         <v>9</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" ht="24" customHeight="1">
+      <c r="A39" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:5" ht="52.5" customHeight="1">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A39:G40"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G17:G18"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A39:E40"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="E13:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2434,14 +1636,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="7" width="9" customWidth="1"/>
   </cols>
@@ -2452,12 +1654,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/IO引脚分配表.xlsx
+++ b/DOC/IO引脚分配表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>GPIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,6 +445,30 @@
     <t>USB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>BOOT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -510,7 +534,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,6 +565,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -705,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -811,6 +841,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1270,10 +1315,12 @@
       <c r="A12" s="9">
         <v>100</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="36" t="s">
+        <v>72</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="10"/>
     </row>
@@ -1375,10 +1422,12 @@
       <c r="A19" s="9">
         <v>110</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="36" t="s">
+        <v>73</v>
+      </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
@@ -1386,10 +1435,12 @@
       <c r="A20" s="6">
         <v>46</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="36" t="s">
+        <v>74</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
@@ -1397,23 +1448,27 @@
       <c r="A21" s="6">
         <v>47</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="36" t="s">
+        <v>75</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="6">
+      <c r="A22" s="38">
         <v>48</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="6">
@@ -1441,10 +1496,12 @@
       <c r="A25" s="6">
         <v>135</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="36" t="s">
+        <v>76</v>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>

--- a/DOC/IO引脚分配表.xlsx
+++ b/DOC/IO引脚分配表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>GPIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,6 +469,10 @@
     <t>RS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -791,6 +795,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,21 +860,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,7 +1163,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1173,20 +1177,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1203,7 +1207,7 @@
       <c r="D3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="9">
@@ -1215,7 +1219,7 @@
       <c r="C4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="38" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="11"/>
@@ -1230,7 +1234,7 @@
       <c r="C5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5">
@@ -1243,7 +1247,7 @@
       <c r="C6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5">
@@ -1256,7 +1260,7 @@
       <c r="C7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5">
@@ -1269,7 +1273,7 @@
       <c r="C8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5">
@@ -1282,7 +1286,7 @@
       <c r="C9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5">
@@ -1295,7 +1299,7 @@
       <c r="C10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5">
@@ -1308,17 +1312,17 @@
       <c r="C11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="9">
         <v>100</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="11"/>
@@ -1337,7 +1341,7 @@
       <c r="D13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="38" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1354,7 +1358,7 @@
       <c r="D14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5" ht="27">
       <c r="A15" s="9">
@@ -1369,7 +1373,7 @@
       <c r="D15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="34"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" ht="27">
       <c r="A16" s="9">
@@ -1384,7 +1388,7 @@
       <c r="D16" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="35"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5" ht="27">
       <c r="A17" s="9">
@@ -1399,7 +1403,7 @@
       <c r="D17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="36" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1416,16 +1420,16 @@
       <c r="D18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="32"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9">
         <v>110</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="11"/>
@@ -1435,40 +1439,42 @@
       <c r="A20" s="6">
         <v>46</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="6">
         <v>47</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="19" t="s">
         <v>75</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="38">
+      <c r="A22" s="21">
         <v>48</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="6">
@@ -1496,10 +1502,10 @@
       <c r="A25" s="6">
         <v>135</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="19" t="s">
         <v>76</v>
       </c>
       <c r="D25" s="7"/>
@@ -1661,20 +1667,20 @@
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" ht="24" customHeight="1">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
     </row>
     <row r="40" spans="1:5" ht="52.5" customHeight="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
